--- a/论文总结.xlsx
+++ b/论文总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,115 @@
   <si>
     <t xml:space="preserve">目前在命名体识别过程中，相对于机构名来说，人名与地名的识别已经研究地比较成熟，其中中文机构名的识别相对困难，识别的效果也相对较差。相对于其他语言来说，中文机构名由于没有相应的大小写。另外，命名比较灵活，如有些地名又可以作为机构名的前缀或者中间的位置表示。如，“山东淄博市周村区新建路小学。同时中文机构名的长度比较随意，长度大小不一。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于规则与语义编辑距离的简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于CRF和规则的中文医疗机构名称识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于SVM和HMM算法的中文机构名称识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于分词信息的中文机构名简称自动生成方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于构成模式和条件随机场的企业简称预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于深度学习的中文机构名识别研究---一种汉字级别的循环神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于规则和CRFs的不对组合名称识别方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掘机构别名的Jaccard相似度数据空间转换方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于属性关联相似度的中文简称匹配算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>采用上下文特征匹配的中文机构名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简称识别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有识别机构名简称的方法多依赖全称，也依赖简称的组成形式。针对这两个问题，提出一种采用上下文特征匹配的机构名简称识别方法。本文提出的上下文特征分为机构名独有特征和干扰词与机构名相交特征，每一个特征赋予一个错误率权重，在不同错误率范围内，采用上下文特征匹配算法识别机构名简称，还通过建立干扰词表和扩展操作，进一步提高了识别的准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构名称简称与全称的自动识别研究初探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得挺简单的，就是从训练集里提取出中文机构的模板特征，然后引入干扰词表（因为有一些干扰词的上下文特征和机构名是一样的）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本文分析了组织机构名称的特点，通过对基于向量空间模型的TF-IDF方法进行改造，提出了一种比较有效的组织机构名称的别名自动识别算法，并且开发实现了识别软件。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对于以上组织名称的简称、别称的识别问题，我们可以把它转化为：给定一个实际使用中的名称，判断它与正规组织机构名称的相似度问题。相似度判断我们可以从自然语言处理中的信息抽取技术中寻求解决方法。信息抽取技术中解决相似度的主要方法有：向量空间模型、语义相似度、概率获取模型、不确定推理、语言模型等。还有下文中提到的组织机构名全名和简称的特点
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组织机构名称别名的识别可以看作是一种基于模糊匹配的信息检索过程，那么向量空间模型也就可以适用于组织机构名称别名的识别问题，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是挺简单的，就是一个机构简称和全称的
+匹配过程，用的是TF-IDF向量的相似度比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +191,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -393,20 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="5" width="50.875" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,8 +564,124 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="171" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2015.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2014.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2017.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2014.4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>2016.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>2016.12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>2017.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>2014.8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/论文总结.xlsx
+++ b/论文总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   <si>
     <t xml:space="preserve">目前在命名体识别过程中，相对于机构名来说，人名与地名的识别已经研究地比较成熟，其中中文机构名的识别相对困难，识别的效果也相对较差。相对于其他语言来说，中文机构名由于没有相应的大小写。另外，命名比较灵活，如有些地名又可以作为机构名的前缀或者中间的位置表示。如，“山东淄博市周村区新建路小学。同时中文机构名的长度比较随意，长度大小不一。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于规则与语义编辑距离的简称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,6 +170,52 @@
   <si>
     <t>还是挺简单的，就是一个机构简称和全称的
 匹配过程，用的是TF-IDF向量的相似度比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkCRF：一种基于Spark的并行CRFs算法实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要分成三个部分：
+1.基于条件随机场的全称识别算法
+2.基于规则与语义编辑距离的简称识别
+3.基于全称与简称的命名实体消歧算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计了SparkCRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robust Named Entity Disambiguation withRandom Walks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自然语言处理中，关于命名体有两个重要的任务，一个是命名体的识别(Named Entity Recognition)，另一个是命名体的消歧(Named Entity Disambiguation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bidirectional LSTM-CRF models for sequence
+tagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">与传统的神经网络相比，RNN多了上一层隐藏层与当前层隐藏层的链接，因此可以用来记忆历史的信息
+LSTM与RNN类似，只是隐藏层的结构发生了变化，因此LSTM可以更好地寻找与挖掘长距离的依赖。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融领域的事件句抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于简称的抽取与识别可以参考一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,16 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="41.625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
@@ -564,8 +606,8 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -573,115 +615,153 @@
     </row>
     <row r="3" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2015.7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2014.3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>2017.5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2014.4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2016.2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2016.12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>2017.4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>2014.8</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>30</v>
+      </c>
+      <c r="B13">
+        <v>2016.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
